--- a/materials/Data.xlsx
+++ b/materials/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\OneDrive\Рабочий стол\Марина\Project\Ukraine project 18\materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merie\OneDrive\Рабочий стол\Марина\Project\Ukraine project 37 breackpoints\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15803ADF-E5F8-4887-90B9-665073AB3B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656C57F7-8188-41FE-9259-733158605A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12390" yWindow="-15540" windowWidth="14220" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13680" yWindow="-16530" windowWidth="13275" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,7 +717,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="32.5546875" customWidth="1"/>
@@ -725,7 +725,7 @@
     <col min="4" max="4" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>74</v>
       </c>
@@ -751,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
@@ -765,7 +765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -779,7 +779,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
@@ -793,7 +793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -807,7 +807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -821,7 +821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -835,7 +835,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>81</v>
       </c>
@@ -849,7 +849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>82</v>
       </c>
@@ -863,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>83</v>
       </c>
@@ -877,7 +877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
@@ -891,7 +891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -905,7 +905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -919,7 +919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>87</v>
       </c>
@@ -933,7 +933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>88</v>
       </c>
@@ -947,7 +947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>89</v>
       </c>
@@ -961,7 +961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>90</v>
       </c>
@@ -975,7 +975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>91</v>
       </c>
@@ -989,7 +989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>92</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>93</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>94</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>96</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>97</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -1093,10 +1093,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="2"/>
     </row>
   </sheetData>
